--- a/results/mp/logistic/corona/confidence/168/topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,36 +46,27 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>fears</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -94,6 +85,9 @@
     <t>co</t>
   </si>
   <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -106,142 +100,157 @@
     <t>a</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>it</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>for</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>in</t>
@@ -602,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,16 +701,16 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -721,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7876712328767124</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C4">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.76</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6">
         <v>0.8839285714285714</v>
@@ -871,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.631578947368421</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8455497382198953</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L7">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M7">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5945945945945946</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5833333333333334</v>
+        <v>0.4973544973544973</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4708994708994709</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C10">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4437984496124031</v>
+        <v>0.4631782945736434</v>
       </c>
       <c r="C11">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D11">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,38 +1130,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4406779661016949</v>
+        <v>0.28</v>
       </c>
       <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>54</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L12">
         <v>26</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>26</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>33</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L12">
-        <v>31</v>
-      </c>
-      <c r="M12">
-        <v>31</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3725490196078431</v>
+        <v>0.2483221476510067</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3571428571428572</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3066666666666666</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2818791946308725</v>
+        <v>0.1099195710455764</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,37 +1380,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2472222222222222</v>
+        <v>0.01976668826960467</v>
       </c>
       <c r="C17">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>271</v>
+        <v>3025</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,37 +1430,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1349206349206349</v>
+        <v>0.01682905225863596</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>218</v>
+        <v>1110</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7575757575757576</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,37 +1480,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.07238605898123325</v>
+        <v>0.01463644948064212</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>346</v>
+        <v>2087</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.765625</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,37 +1530,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01553900938815151</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C20">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>0.49</v>
+      </c>
+      <c r="F20">
+        <v>0.51</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2324</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D20">
-        <v>66</v>
-      </c>
-      <c r="E20">
-        <v>0.27</v>
-      </c>
-      <c r="F20">
-        <v>0.73</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>3041</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,37 +1580,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01224105461393597</v>
+        <v>0.009033778476040848</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E21">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="F21">
-        <v>0.5800000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2098</v>
+        <v>5046</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,37 +1630,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0105977108944468</v>
+        <v>0.008340649692712906</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>0.62</v>
+      </c>
+      <c r="F22">
+        <v>0.38</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2259</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L22">
         <v>45</v>
       </c>
-      <c r="E22">
-        <v>0.44</v>
-      </c>
-      <c r="F22">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2334</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
       <c r="M22">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,37 +1680,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008629142969209649</v>
+        <v>0.006548175865294668</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E23">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="F23">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>5055</v>
+        <v>4248</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.6558823529411765</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>117</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,187 +1730,115 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.008300567933595456</v>
+        <v>0.005711954304365565</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="E24">
-        <v>0.51</v>
+        <v>0.77</v>
       </c>
       <c r="F24">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2270</v>
+        <v>4874</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.7</v>
+      </c>
+      <c r="L24">
+        <v>28</v>
+      </c>
+      <c r="M24">
+        <v>28</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L25">
+        <v>32</v>
+      </c>
+      <c r="M25">
+        <v>32</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K24">
-        <v>0.6382252559726962</v>
-      </c>
-      <c r="L24">
-        <v>187</v>
-      </c>
-      <c r="M24">
-        <v>189</v>
-      </c>
-      <c r="N24">
-        <v>0.99</v>
-      </c>
-      <c r="O24">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.007939028262940616</v>
-      </c>
-      <c r="C25">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <v>77</v>
-      </c>
-      <c r="E25">
-        <v>0.68</v>
-      </c>
-      <c r="F25">
-        <v>0.32</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>3124</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <v>39</v>
-      </c>
-      <c r="M25">
-        <v>39</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.005676059193188729</v>
-      </c>
-      <c r="C26">
-        <v>28</v>
-      </c>
-      <c r="D26">
-        <v>91</v>
-      </c>
-      <c r="E26">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F26">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>4905</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26">
-        <v>0.5983263598326359</v>
-      </c>
-      <c r="L26">
-        <v>143</v>
-      </c>
-      <c r="M26">
-        <v>143</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.005380116959064328</v>
-      </c>
-      <c r="C27">
-        <v>23</v>
-      </c>
-      <c r="D27">
-        <v>76</v>
-      </c>
-      <c r="E27">
-        <v>0.7</v>
-      </c>
-      <c r="F27">
-        <v>0.3</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>4252</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K27">
-        <v>0.5957446808510638</v>
+        <v>0.66</v>
       </c>
       <c r="L27">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L28">
         <v>59</v>
       </c>
-      <c r="K28">
-        <v>0.5842696629213483</v>
-      </c>
-      <c r="L28">
-        <v>52</v>
-      </c>
       <c r="M28">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1939,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1965,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1991,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.525</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2017,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2043,73 +1980,73 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.3333333333333333</v>
+        <v>0.5986394557823129</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>52</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.05301645338208409</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2121,15 +2058,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>518</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.04819277108433735</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L36">
         <v>20</v>
@@ -2147,423 +2084,579 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>395</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.04093567251461988</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L37">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1148</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.02498048399687744</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1249</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.0244085617724371</v>
+        <v>0.3620689655172414</v>
       </c>
       <c r="L39">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="N39">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0.13</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2598</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.02377972465581978</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>780</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.0220125786163522</v>
+        <v>0.05016722408026756</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M41">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="N41">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O41">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>1555</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.01926977687626775</v>
+        <v>0.04212454212454213</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N42">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>967</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.0163727959697733</v>
+        <v>0.02746693794506612</v>
       </c>
       <c r="L43">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="N43">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="O43">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3124</v>
+        <v>956</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.01604938271604938</v>
+        <v>0.02742299023290759</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="M44">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="N44">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="O44">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>2391</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.01297614064462118</v>
+        <v>0.02580140734949179</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N45">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="O45">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2358</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.01288810779144698</v>
+        <v>0.02121504339440694</v>
       </c>
       <c r="L46">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N46">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="O46">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>5055</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.01268115942028986</v>
+        <v>0.019140257295262</v>
       </c>
       <c r="L47">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M47">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="N47">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O47">
-        <v>0.3100000000000001</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>4905</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.01231126596980256</v>
+        <v>0.01894563426688632</v>
       </c>
       <c r="L48">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M48">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N48">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="O48">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>4252</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="K49">
-        <v>0.01071761416589003</v>
+        <v>0.01892109500805153</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="M49">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="N49">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="O49">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2123</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="K50">
-        <v>0.008974964572508267</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M50">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N50">
-        <v>0.42</v>
+        <v>0.83</v>
       </c>
       <c r="O50">
-        <v>0.5800000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2098</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51">
+        <v>0.01828499369482976</v>
+      </c>
+      <c r="L51">
         <v>29</v>
       </c>
-      <c r="K51">
-        <v>0.008733624454148471</v>
-      </c>
-      <c r="L51">
-        <v>20</v>
-      </c>
       <c r="M51">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N51">
-        <v>0.51</v>
+        <v>0.78</v>
       </c>
       <c r="O51">
-        <v>0.49</v>
+        <v>0.22</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>2270</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52">
+        <v>0.01426059777300254</v>
+      </c>
+      <c r="L52">
+        <v>73</v>
+      </c>
+      <c r="M52">
+        <v>119</v>
+      </c>
+      <c r="N52">
+        <v>0.61</v>
+      </c>
+      <c r="O52">
+        <v>0.39</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K52">
-        <v>0.008496176720475786</v>
-      </c>
-      <c r="L52">
-        <v>20</v>
-      </c>
-      <c r="M52">
-        <v>45</v>
-      </c>
-      <c r="N52">
-        <v>0.44</v>
-      </c>
-      <c r="O52">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>2334</v>
+      <c r="K53">
+        <v>0.01353711790393013</v>
+      </c>
+      <c r="L53">
+        <v>31</v>
+      </c>
+      <c r="M53">
+        <v>50</v>
+      </c>
+      <c r="N53">
+        <v>0.62</v>
+      </c>
+      <c r="O53">
+        <v>0.38</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54">
+        <v>0.01209302325581395</v>
+      </c>
+      <c r="L54">
+        <v>52</v>
+      </c>
+      <c r="M54">
+        <v>80</v>
+      </c>
+      <c r="N54">
+        <v>0.65</v>
+      </c>
+      <c r="O54">
+        <v>0.35</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55">
+        <v>0.01183712121212121</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55">
+        <v>56</v>
+      </c>
+      <c r="N55">
+        <v>0.45</v>
+      </c>
+      <c r="O55">
+        <v>0.55</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56">
+        <v>0.01148447469162059</v>
+      </c>
+      <c r="L56">
+        <v>27</v>
+      </c>
+      <c r="M56">
+        <v>55</v>
+      </c>
+      <c r="N56">
+        <v>0.49</v>
+      </c>
+      <c r="O56">
+        <v>0.51</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K57">
+        <v>0.01023255813953488</v>
+      </c>
+      <c r="L57">
+        <v>22</v>
+      </c>
+      <c r="M57">
+        <v>30</v>
+      </c>
+      <c r="N57">
+        <v>0.73</v>
+      </c>
+      <c r="O57">
+        <v>0.27</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58">
+        <v>0.006894287590282338</v>
+      </c>
+      <c r="L58">
+        <v>21</v>
+      </c>
+      <c r="M58">
+        <v>82</v>
+      </c>
+      <c r="N58">
+        <v>0.26</v>
+      </c>
+      <c r="O58">
+        <v>0.74</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3025</v>
       </c>
     </row>
   </sheetData>
